--- a/tunbis/tunbis/user.xlsx
+++ b/tunbis/tunbis/user.xlsx
@@ -5724,8 +5724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1688"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
